--- a/exemples/output/B1_Diagram2.xlsx
+++ b/exemples/output/B1_Diagram2.xlsx
@@ -50,19 +50,19 @@
     <t>Level of Authorization</t>
   </si>
   <si>
+    <t>Enablers</t>
+  </si>
+  <si>
+    <t>Enabler services provided</t>
+  </si>
+  <si>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>Application data</t>
+  </si>
+  <si>
     <t>Enablers2</t>
-  </si>
-  <si>
-    <t>Enabler services provided</t>
-  </si>
-  <si>
-    <t>Operational</t>
-  </si>
-  <si>
-    <t>Application data</t>
-  </si>
-  <si>
-    <t>Enablers</t>
   </si>
 </sst>
 </file>

--- a/exemples/output/B1_Diagram2.xlsx
+++ b/exemples/output/B1_Diagram2.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="EntryPoint" sheetId="1" r:id="rId1"/>
     <sheet name="Trust Boundaries" sheetId="2" r:id="rId2"/>
+    <sheet name="Threats" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +64,42 @@
   </si>
   <si>
     <t>Enablers2</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>STRIDE</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Mitigations</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>Denial of service</t>
+  </si>
+  <si>
+    <t>Provide a description for this threat</t>
+  </si>
+  <si>
+    <t>Attack vector</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Provide remediation for this threat or a reason if status is N/A</t>
+  </si>
+  <si>
+    <t>flow</t>
   </si>
 </sst>
 </file>
@@ -98,8 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,6 +171,22 @@
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Limit of Access"/>
     <tableColumn id="4" name="Level of Authorization"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G3" totalsRowShown="0">
+  <autoFilter ref="A1:G3"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="STRIDE"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="5" name="Vector"/>
+    <tableColumn id="6" name="Status"/>
+    <tableColumn id="7" name="Mitigations"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -537,4 +593,98 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/exemples/output/B1_Diagram2.xlsx
+++ b/exemples/output/B1_Diagram2.xlsx
@@ -7,29 +7,55 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="EntryPoint" sheetId="1" r:id="rId1"/>
-    <sheet name="Trust Boundaries" sheetId="2" r:id="rId2"/>
-    <sheet name="Threats" sheetId="3" r:id="rId3"/>
+    <sheet name="Software Component" sheetId="1" r:id="rId1"/>
+    <sheet name="EntryPoint" sheetId="2" r:id="rId2"/>
+    <sheet name="Trust Boundaries" sheetId="3" r:id="rId3"/>
+    <sheet name="Asset worksheet" sheetId="4" r:id="rId4"/>
+    <sheet name="Threats" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Trust Level</t>
+  </si>
+  <si>
+    <t>MyProcess</t>
+  </si>
+  <si>
+    <t>Ecoute</t>
+  </si>
+  <si>
+    <t>RabbitMq</t>
+  </si>
+  <si>
+    <t>Message broker</t>
+  </si>
+  <si>
+    <t>Prometheus</t>
+  </si>
+  <si>
+    <t>Metrics server</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>RabbitMq2</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Trust Level</t>
-  </si>
-  <si>
     <t>Microservice</t>
   </si>
   <si>
@@ -40,9 +66,6 @@
   </si>
   <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>MyProcess</t>
   </si>
   <si>
     <t>Limit of Access</t>
@@ -150,21 +173,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Trust Level"/>
-    <tableColumn id="5" name="Microservice"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Trust Level"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Description"/>
+    <tableColumn id="3" name="Trust Level"/>
+    <tableColumn id="4" name="Microservice"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D3" totalsRowShown="0">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ID"/>
@@ -176,8 +210,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G3" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B1" totalsRowShown="0">
+  <autoFilter ref="A1:B1"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G3" totalsRowShown="0">
   <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
@@ -477,50 +522,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -532,6 +593,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -540,51 +651,51 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +706,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -614,71 +753,71 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/exemples/output/B1_Diagram2.xlsx
+++ b/exemples/output/B1_Diagram2.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Trust Boundaries" sheetId="3" r:id="rId3"/>
     <sheet name="Asset worksheet" sheetId="4" r:id="rId4"/>
     <sheet name="Threats" sheetId="5" r:id="rId5"/>
+    <sheet name="Vectors" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -56,10 +57,19 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Asset Name</t>
+  </si>
+  <si>
     <t>Microservice</t>
   </si>
   <si>
     <t>PROC_RABBIT_2</t>
+  </si>
+  <si>
+    <t>Exit</t>
   </si>
   <si>
     <t>Publish message</t>
@@ -185,13 +195,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="3" name="Trust Level"/>
-    <tableColumn id="4" name="Microservice"/>
+    <tableColumn id="2" name="Direction"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Asset Name"/>
+    <tableColumn id="5" name="Trust Level"/>
+    <tableColumn id="6" name="Microservice"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -232,6 +244,16 @@
     <tableColumn id="5" name="Vector"/>
     <tableColumn id="6" name="Status"/>
     <tableColumn id="7" name="Mitigations"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -594,43 +616,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -664,38 +697,38 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -756,22 +789,22 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -779,45 +812,74 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/exemples/output/B1_Diagram2.xlsx
+++ b/exemples/output/B1_Diagram2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -30,18 +30,27 @@
     <t>Trust Level</t>
   </si>
   <si>
+    <t>Out of scope</t>
+  </si>
+  <si>
     <t>MyProcess</t>
   </si>
   <si>
     <t>Ecoute</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>RabbitMq</t>
   </si>
   <si>
     <t>Message broker</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Prometheus</t>
   </si>
   <si>
@@ -84,19 +93,19 @@
     <t>Level of Authorization</t>
   </si>
   <si>
+    <t>Enablers2</t>
+  </si>
+  <si>
+    <t>Enabler services provided</t>
+  </si>
+  <si>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>Application data</t>
+  </si>
+  <si>
     <t>Enablers</t>
-  </si>
-  <si>
-    <t>Enabler services provided</t>
-  </si>
-  <si>
-    <t>Operational</t>
-  </si>
-  <si>
-    <t>Application data</t>
-  </si>
-  <si>
-    <t>Enablers2</t>
   </si>
   <si>
     <t>Type</t>
@@ -183,12 +192,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Trust Level"/>
+    <tableColumn id="4" name="Out of scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,9 +563,10 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,45 +576,63 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -632,39 +661,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -691,44 +720,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -786,71 +815,71 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +908,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
